--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="129">
   <si>
     <t>Chekov, Pavel</t>
   </si>
@@ -143,70 +143,169 @@
     <t>Friday, Feb 12th, 3:30-4:00</t>
   </si>
   <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Maksim Plikus</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456796</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456817</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456815</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456816</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456800</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456822</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456799</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456832</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456803</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456808</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456818</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456806</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456825</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
     <t>Kevin Thornton</t>
   </si>
   <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
     <t>Zoom room: 123456823</t>
   </si>
   <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
     <t>Zoom room: 123456789</t>
   </si>
   <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456808</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Albert Siryaporn</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456820</t>
-  </si>
-  <si>
     <t>Dax, Jadzia</t>
   </si>
   <si>
     <t>Troi, Deanna</t>
   </si>
   <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
+    <t>Kevin Beier</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456828</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456793</t>
+  </si>
+  <si>
     <t>Nechayev, Alynna</t>
   </si>
   <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456831</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456819</t>
+  </si>
+  <si>
     <t>Nerys, Kira</t>
   </si>
   <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456831</t>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456804</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456833</t>
   </si>
   <si>
     <t>Janeway, Kathryn</t>
@@ -215,49 +314,109 @@
     <t>Kirk, James T.</t>
   </si>
   <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456807</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456812</t>
+  </si>
+  <si>
     <t>Guinan</t>
   </si>
   <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456821</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456801</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456824</t>
+  </si>
+  <si>
     <t>McCoy, Leonard</t>
   </si>
   <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456799</t>
-  </si>
-  <si>
     <t>O'Brien, Miles</t>
   </si>
   <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456822</t>
-  </si>
-  <si>
     <t>Picard, Jean-Luc</t>
   </si>
   <si>
     <t>Torres, B'Elanna</t>
   </si>
   <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456830</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456809</t>
+  </si>
+  <si>
     <t>Rozhenko, Alexander</t>
   </si>
   <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456802</t>
+  </si>
+  <si>
     <t>Uhura, Nyota</t>
   </si>
   <si>
-    <t>Dominik Wodarz</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456828</t>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Reginald McNulty</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456829</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456811</t>
   </si>
   <si>
     <t>Worf</t>
   </si>
   <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456810</t>
+  </si>
+  <si>
     <t>Ogawa, Alyssa</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456797</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456827</t>
   </si>
   <si>
     <t>Sulu, Hikaru</t>
@@ -649,13 +808,19 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -663,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -671,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -679,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -687,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -695,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -703,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -711,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -719,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -727,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -735,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -743,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -751,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -759,145 +924,151 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -920,7 +1091,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -931,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -939,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -947,7 +1118,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -955,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -963,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -971,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -979,7 +1153,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -987,7 +1161,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -995,7 +1172,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1003,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1011,7 +1191,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1019,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1027,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1035,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1043,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1051,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1059,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1067,9 +1250,6 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1078,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1086,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1094,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1102,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1110,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1118,7 +1298,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1126,7 +1306,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1134,7 +1317,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1142,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1150,7 +1333,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1158,7 +1341,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1166,7 +1349,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1174,7 +1357,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1182,7 +1365,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1387,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1215,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1223,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1231,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1239,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1247,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1255,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1263,7 +1446,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1271,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1279,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1287,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1295,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1303,7 +1489,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1311,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1319,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1327,135 +1516,144 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1463,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1496,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1504,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1512,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1520,7 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1528,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1536,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1544,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1552,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1560,10 +1761,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1571,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1579,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1587,7 +1785,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1595,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1603,7 +1804,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1611,135 +1812,138 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1747,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1973,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1780,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1788,7 +1992,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1796,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1804,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1812,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1820,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1828,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1836,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1844,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1852,7 +2059,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1860,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1868,7 +2075,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1876,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1884,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1892,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1900,7 +2110,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1908,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1916,7 +2126,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1924,7 +2134,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1932,7 +2142,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1940,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1948,7 +2158,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1956,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1964,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1972,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1980,7 +2190,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1988,7 +2198,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1996,7 +2206,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2004,7 +2214,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2012,7 +2222,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2020,7 +2230,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2028,7 +2238,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2061,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2069,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2077,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2085,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2093,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2319,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2338,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2357,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2365,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2157,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2165,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2173,135 +2389,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2309,7 +2531,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2342,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2350,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2358,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2366,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2374,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2382,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2390,7 +2612,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2398,7 +2620,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2406,7 +2631,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2414,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2422,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2430,7 +2658,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2438,7 +2666,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2446,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2454,135 +2682,144 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2590,7 +2827,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2849,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2623,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2631,7 +2868,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2639,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2647,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2655,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2663,7 +2903,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2671,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2679,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2687,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2695,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2703,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2711,10 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2722,7 +2959,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2730,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2738,135 +2975,138 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2874,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +3136,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2907,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2915,7 +3155,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2923,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2931,7 +3174,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2939,10 +3182,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2950,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2958,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2966,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2974,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2982,7 +3222,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2990,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2998,7 +3238,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3006,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3014,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3022,135 +3262,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3158,7 +3404,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3191,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3199,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3207,7 +3453,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3215,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3223,7 +3469,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3231,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3239,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3247,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3255,7 +3501,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3263,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3271,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3279,7 +3528,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3287,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3295,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3303,135 +3555,138 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3439,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3472,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3480,7 +3735,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3488,7 +3746,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3496,7 +3754,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3504,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3512,7 +3773,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3520,7 +3781,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3528,7 +3789,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3536,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3544,7 +3805,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3552,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3560,7 +3821,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3568,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3576,7 +3837,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3584,135 +3845,144 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3720,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3753,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3761,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3769,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3777,7 +4047,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3785,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3793,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3801,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3809,7 +4082,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3817,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3825,7 +4098,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3833,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3841,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3849,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3857,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3865,135 +4138,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4001,7 +4280,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4302,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4034,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4042,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4050,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4058,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4066,7 +4345,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4074,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4082,7 +4361,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4090,7 +4369,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4098,7 +4377,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4106,7 +4388,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4114,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4122,7 +4404,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4130,7 +4412,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4138,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4146,143 +4428,152 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4595,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4315,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4323,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4331,7 +4622,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4339,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4347,7 +4641,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4355,7 +4649,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4363,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4371,7 +4665,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4379,7 +4673,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4387,7 +4681,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4395,7 +4689,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4403,7 +4697,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4411,7 +4705,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4419,7 +4716,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4427,7 +4724,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4435,7 +4735,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4443,7 +4746,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4451,7 +4754,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4459,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4467,7 +4770,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4475,7 +4781,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4483,10 +4789,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4494,7 +4800,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4502,7 +4811,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4510,7 +4822,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4518,7 +4830,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4526,7 +4838,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4534,7 +4846,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4542,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4550,7 +4862,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4558,15 +4870,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4588,7 +4903,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4599,7 +4914,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4607,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4615,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4623,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4631,7 +4946,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4639,7 +4954,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4647,7 +4962,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4655,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4663,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4671,7 +4986,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4679,7 +4997,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4687,7 +5005,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4695,7 +5013,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4703,7 +5021,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4711,7 +5029,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4719,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4727,7 +5045,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4735,7 +5053,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4743,7 +5061,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4751,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4759,7 +5077,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4767,7 +5085,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4775,7 +5093,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4783,7 +5101,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4791,7 +5109,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4799,7 +5117,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4807,7 +5125,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4815,7 +5133,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4823,7 +5141,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4831,7 +5149,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4839,15 +5157,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +5190,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4880,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4888,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4896,7 +5217,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4904,7 +5225,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4912,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4920,7 +5241,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4928,7 +5249,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4936,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4944,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4952,7 +5273,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4960,7 +5284,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4968,7 +5292,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4976,7 +5300,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4984,7 +5308,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4992,135 +5316,150 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5128,7 +5467,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5489,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5161,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5169,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5177,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5185,7 +5524,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5193,7 +5532,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5201,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5209,7 +5548,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5217,7 +5556,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5225,7 +5564,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5233,7 +5575,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5241,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5249,7 +5591,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5257,7 +5599,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5265,7 +5607,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5273,143 +5615,149 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5431,7 +5779,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5442,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5450,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5458,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5466,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5474,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5482,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5490,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5498,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5506,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5514,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5522,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5530,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5538,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5546,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5554,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5562,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5570,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5578,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5586,7 +5934,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5594,10 +5945,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5605,7 +5956,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5613,7 +5964,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5621,7 +5972,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5629,7 +5980,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5637,7 +5988,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5645,7 +5996,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5653,7 +6004,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5661,7 +6012,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5669,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5677,7 +6031,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5685,7 +6039,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5693,7 +6047,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5715,7 +6069,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5726,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5734,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5742,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5750,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5758,7 +6112,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5766,7 +6120,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5774,7 +6128,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5782,7 +6136,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5790,7 +6144,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5798,7 +6152,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5806,7 +6160,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5814,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5822,7 +6176,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5830,7 +6184,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5838,135 +6192,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5974,7 +6334,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5996,7 +6356,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6007,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6015,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6023,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6031,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6039,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6047,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6055,10 +6415,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6066,7 +6423,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6074,7 +6431,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6082,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6090,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6098,7 +6455,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6106,7 +6466,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6114,7 +6474,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6122,135 +6482,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6258,7 +6624,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6280,7 +6646,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6291,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6299,7 +6665,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6307,7 +6673,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6315,7 +6681,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6323,7 +6692,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6331,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6339,7 +6708,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6347,7 +6716,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6355,7 +6724,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6363,7 +6732,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6371,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6379,7 +6748,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6387,7 +6756,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6395,7 +6767,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6403,7 +6775,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6411,7 +6783,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6419,7 +6791,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6427,7 +6799,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6435,7 +6807,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6443,7 +6815,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6451,7 +6823,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6459,7 +6831,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6467,7 +6839,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6475,7 +6847,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6483,7 +6855,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6491,7 +6863,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6499,7 +6871,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6507,7 +6879,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6515,7 +6887,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6523,7 +6895,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6531,7 +6903,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6539,7 +6911,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6933,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6572,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6580,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6588,7 +6960,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6596,7 +6968,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6604,7 +6976,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6612,7 +6984,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6620,7 +6992,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6628,7 +7000,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6636,7 +7008,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6644,7 +7016,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6652,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6660,7 +7032,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6668,7 +7040,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6676,7 +7048,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6684,135 +7056,138 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6820,7 +7195,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6842,7 +7217,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6853,7 +7228,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6861,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6869,7 +7244,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6877,7 +7252,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6885,7 +7260,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6893,7 +7268,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6901,7 +7276,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6909,7 +7284,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6919,13 +7294,16 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6933,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6941,7 +7319,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6949,7 +7327,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6957,7 +7335,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6965,135 +7343,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7101,7 +7485,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7123,7 +7507,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7134,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7142,7 +7526,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7150,7 +7534,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7158,7 +7542,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7166,7 +7550,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7174,7 +7558,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7182,7 +7566,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7190,7 +7574,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7198,7 +7582,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7206,10 +7590,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7217,7 +7598,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7225,7 +7606,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7233,7 +7614,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7241,7 +7622,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7249,135 +7633,138 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7385,7 +7772,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7407,7 +7794,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7418,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7426,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7434,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7442,7 +7829,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7450,7 +7837,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7458,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7466,7 +7853,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7474,7 +7861,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7482,7 +7869,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7490,7 +7877,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7498,7 +7885,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7506,7 +7893,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7514,7 +7901,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7522,7 +7909,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7530,7 +7917,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7538,7 +7925,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7546,7 +7933,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7554,7 +7944,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7562,7 +7952,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7570,7 +7960,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7578,7 +7968,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7586,10 +7976,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7597,7 +7984,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7605,7 +7992,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7613,7 +8000,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7621,7 +8011,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7629,7 +8019,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7637,7 +8027,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7645,7 +8035,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7653,7 +8043,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7661,7 +8051,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7669,7 +8059,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7691,7 +8081,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7702,7 +8092,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7710,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7718,7 +8108,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7726,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7734,7 +8124,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7742,7 +8132,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7750,7 +8140,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7758,7 +8148,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7766,7 +8156,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7774,7 +8164,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7782,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7790,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7798,7 +8188,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7806,7 +8196,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7814,135 +8204,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7950,7 +8346,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="139">
   <si>
     <t>Chekov, Pavel</t>
   </si>
@@ -143,213 +143,291 @@
     <t>Friday, Feb 12th, 3:30-4:00</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Maksim Plikus</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456803</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456815</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456819</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456830</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456799</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456808</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456789</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456825</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Reginald McNulty</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456829</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456822</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456807</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456811</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456816</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456812</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456809</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456795</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456833</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456824</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456827</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456791</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456800</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456810</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456797</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456831</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456821</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456801</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456818</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456828</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
     <t>James Brody</t>
   </si>
   <si>
-    <t>Jose Ranz</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Maksim Plikus</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
   </si>
   <si>
     <t>Zoom room: 123456796</t>
   </si>
   <si>
-    <t>Zoom room: 123456817</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456815</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456816</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456800</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456822</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
+    <t>Zoom room: 123456794</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456804</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Marian Waterman</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456813</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456826</t>
+  </si>
+  <si>
+    <t>Dax, Jadzia</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456802</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>Albert Siryaporn</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456820</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
+    <t>Kevin Thornton</t>
   </si>
   <si>
     <t>Clare Yu</t>
   </si>
   <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456799</t>
+    <t>Zoom room: 123456823</t>
   </si>
   <si>
     <t>Zoom room: 123456832</t>
   </si>
   <si>
-    <t>Zoom room: 123456803</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Thomas Schilling</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456808</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456818</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
+    <t>Nerys, Kira</t>
+  </si>
+  <si>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Kevin Beier</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456793</t>
+  </si>
+  <si>
+    <t>McCoy, Leonard</t>
   </si>
   <si>
     <t>Grace Yuh Chwen Lee</t>
   </si>
   <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
     <t>Zoom room: 123456806</t>
   </si>
   <si>
-    <t>Zoom room: 123456825</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Kevin Thornton</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456823</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456789</t>
-  </si>
-  <si>
-    <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Dominik Wodarz</t>
-  </si>
-  <si>
-    <t>Kevin Beier</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456828</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456793</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456831</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456819</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456804</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456833</t>
-  </si>
-  <si>
-    <t>Janeway, Kathryn</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Ali Mortazavi</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456807</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456812</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456821</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456801</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456824</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
     <t>O'Brien, Miles</t>
   </si>
   <si>
@@ -359,64 +437,16 @@
     <t>Torres, B'Elanna</t>
   </si>
   <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456830</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456809</t>
-  </si>
-  <si>
     <t>Rozhenko, Alexander</t>
   </si>
   <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456802</t>
-  </si>
-  <si>
     <t>Uhura, Nyota</t>
   </si>
   <si>
-    <t>Zeba Wunderlich</t>
-  </si>
-  <si>
-    <t>Reginald McNulty</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456829</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456811</t>
-  </si>
-  <si>
     <t>Worf</t>
   </si>
   <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456810</t>
-  </si>
-  <si>
     <t>Ogawa, Alyssa</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Katrine Whiteson</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456797</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456827</t>
   </si>
   <si>
     <t>Sulu, Hikaru</t>
@@ -808,19 +838,13 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -828,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -836,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -844,7 +868,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -852,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -862,13 +889,19 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -876,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -884,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -892,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -900,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -908,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -916,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -924,7 +957,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -932,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -940,7 +976,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -948,7 +987,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -956,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -964,10 +1006,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -975,10 +1014,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -986,7 +1022,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -994,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1002,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1010,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1018,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1026,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1034,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1042,7 +1078,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1050,7 +1086,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1058,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1069,7 +1108,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1102,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1110,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1118,10 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1129,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1137,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1145,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1153,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1161,10 +1197,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1172,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1183,7 +1216,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1191,10 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1202,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1210,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1218,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1226,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1234,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1242,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1250,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1258,7 +1291,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1266,7 +1302,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1274,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1282,7 +1321,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1290,7 +1329,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1298,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1306,10 +1345,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1317,7 +1353,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1325,7 +1361,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1333,7 +1369,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1341,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1349,7 +1385,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1357,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1365,7 +1401,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1423,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1398,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1406,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1414,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1422,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1430,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1438,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1446,10 +1482,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1457,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1465,7 +1498,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1473,7 +1509,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1481,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1489,10 +1528,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1500,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1508,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1516,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1524,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1532,7 +1568,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1540,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1548,7 +1584,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1556,7 +1595,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1564,7 +1606,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1572,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1580,10 +1622,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1591,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1599,10 +1638,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1610,7 +1646,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1618,7 +1654,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1626,7 +1662,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1634,10 +1670,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1645,7 +1678,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1653,7 +1686,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1661,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1716,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1694,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1702,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1710,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1718,10 +1751,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1729,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1737,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1745,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1753,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1761,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1769,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1777,7 +1807,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1785,10 +1818,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1796,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1804,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1812,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1820,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1828,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1836,7 +1866,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1844,10 +1874,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1855,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1863,7 +1890,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1871,7 +1898,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1879,7 +1909,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1887,7 +1920,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1895,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1903,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1911,7 +1947,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1919,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1927,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1935,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1943,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1951,7 +1987,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +2009,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1984,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1992,10 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2003,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2011,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2019,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2027,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2035,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2043,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2051,7 +2084,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2059,7 +2095,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2067,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2075,10 +2114,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2086,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2094,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2102,135 +2138,141 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2238,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2302,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2271,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2279,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2287,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2295,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2303,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2311,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2319,10 +2361,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2330,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2338,10 +2377,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2349,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2357,7 +2393,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2365,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2373,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2381,7 +2420,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2389,7 +2428,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2397,7 +2436,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2405,7 +2444,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2413,10 +2452,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2424,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2432,7 +2468,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2440,7 +2476,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2448,7 +2484,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2456,7 +2495,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2464,7 +2506,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2472,7 +2517,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2480,7 +2525,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2488,7 +2533,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2496,7 +2541,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2504,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2512,10 +2557,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2523,7 +2565,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2531,7 +2573,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2553,7 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2564,7 +2606,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2572,7 +2617,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2580,7 +2628,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2588,7 +2639,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2596,7 +2650,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2604,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2612,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2620,10 +2674,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2631,10 +2682,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2642,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2650,7 +2698,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2658,7 +2709,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2666,7 +2720,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2674,7 +2731,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2682,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2690,7 +2750,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2698,7 +2758,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2706,7 +2766,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2714,7 +2774,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2722,7 +2782,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2730,10 +2790,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2741,7 +2798,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2749,7 +2806,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2757,7 +2814,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2765,7 +2822,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2773,10 +2833,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2784,7 +2844,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2792,7 +2855,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2800,10 +2866,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2811,7 +2874,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2819,7 +2882,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2827,7 +2890,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2912,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2860,7 +2923,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2868,10 +2934,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2879,7 +2945,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2887,7 +2956,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2895,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2903,7 +2975,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2911,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2919,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2927,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2935,7 +3007,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2943,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2951,7 +3023,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2959,7 +3034,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2967,7 +3045,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2975,7 +3056,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2983,7 +3064,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2991,7 +3072,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2999,7 +3080,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3007,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3015,7 +3096,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3023,7 +3104,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3031,7 +3112,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3039,7 +3120,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3047,7 +3128,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3057,16 +3138,19 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3074,7 +3158,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3082,7 +3166,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3090,7 +3177,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3098,7 +3185,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3106,7 +3193,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3114,7 +3201,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3147,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3155,10 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3166,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3174,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3182,7 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3190,7 +3277,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3198,7 +3285,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3206,7 +3296,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3214,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3222,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3230,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3238,7 +3331,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3246,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3254,7 +3347,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3262,7 +3355,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3270,7 +3366,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3278,7 +3377,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3286,7 +3388,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3294,10 +3399,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3305,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3313,7 +3415,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3321,7 +3423,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3329,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3337,7 +3439,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3345,7 +3447,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3353,7 +3455,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3361,7 +3463,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3369,7 +3471,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3377,7 +3479,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3385,7 +3487,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3393,18 +3498,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +3534,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3437,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3445,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3453,7 +3561,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3461,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3469,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3477,7 +3585,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3485,7 +3596,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3493,7 +3607,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3501,10 +3618,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3512,7 +3626,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3520,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3528,10 +3642,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3539,7 +3650,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3547,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3555,7 +3666,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3563,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3571,7 +3685,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3579,7 +3696,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3587,10 +3707,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3598,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3606,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3614,7 +3731,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3622,7 +3739,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3630,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3638,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3646,7 +3763,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3654,7 +3771,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3662,7 +3779,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3670,7 +3787,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3678,7 +3798,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3686,15 +3806,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3842,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3727,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3735,10 +3861,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3746,7 +3869,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3754,10 +3877,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3765,7 +3885,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3773,7 +3896,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3781,7 +3907,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3789,7 +3918,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3797,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3805,7 +3937,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3813,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3821,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3829,7 +3961,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3837,7 +3969,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3845,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3853,7 +3985,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3861,10 +3996,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3872,7 +4007,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3880,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3888,10 +4026,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3899,7 +4034,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3907,7 +4042,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3915,7 +4050,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3923,7 +4058,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3931,7 +4066,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3939,10 +4074,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3950,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3958,7 +4090,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3966,7 +4098,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3974,7 +4106,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3982,15 +4117,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4012,7 +4150,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4023,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4031,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4039,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4047,10 +4185,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4058,7 +4193,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4066,7 +4204,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4074,7 +4215,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4082,7 +4226,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4090,7 +4237,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4098,7 +4245,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4106,7 +4253,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4114,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4122,7 +4269,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4130,7 +4277,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4138,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4146,7 +4293,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4154,7 +4304,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4164,13 +4317,16 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4178,7 +4334,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4186,7 +4342,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4194,7 +4350,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4202,10 +4358,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4213,7 +4366,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4221,7 +4374,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4229,7 +4382,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4237,10 +4390,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4248,7 +4398,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4256,7 +4406,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4264,7 +4414,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4272,15 +4425,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4302,7 +4461,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4313,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4321,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4329,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4337,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4345,7 +4504,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4353,7 +4515,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4361,7 +4526,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4369,7 +4537,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4377,10 +4548,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4388,7 +4556,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4396,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4404,7 +4572,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4412,7 +4580,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4420,7 +4588,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4428,7 +4596,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4436,7 +4604,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4444,7 +4615,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4452,7 +4626,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4460,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4468,7 +4645,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4476,7 +4653,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4484,10 +4661,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4495,7 +4669,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4503,7 +4677,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4511,7 +4685,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4519,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4527,7 +4701,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4535,7 +4709,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4543,7 +4717,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4551,7 +4728,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4559,10 +4736,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4570,10 +4747,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4595,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4606,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4614,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4622,10 +4799,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4633,7 +4807,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4641,7 +4815,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4649,7 +4826,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4657,7 +4834,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4665,7 +4845,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4673,7 +4856,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4681,7 +4864,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4689,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4697,7 +4880,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4705,10 +4888,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4716,7 +4896,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4724,10 +4904,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4735,10 +4912,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4746,7 +4923,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4754,7 +4934,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4762,7 +4945,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4770,10 +4953,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4781,7 +4961,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4789,10 +4969,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4800,10 +4977,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4811,10 +4985,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4822,7 +4993,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4830,7 +5001,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4838,7 +5009,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4846,7 +5017,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4854,7 +5025,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4862,7 +5036,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4870,7 +5047,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4878,10 +5058,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +5083,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4914,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4922,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4930,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4938,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4946,7 +5126,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4954,7 +5134,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4962,7 +5142,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4970,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4978,7 +5158,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4986,10 +5169,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4997,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5005,7 +5188,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5013,7 +5196,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5021,7 +5204,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5029,146 +5212,149 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5190,7 +5376,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5201,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5209,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5217,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5225,7 +5411,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5233,7 +5419,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5241,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5249,7 +5435,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5257,7 +5443,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5265,7 +5451,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5273,10 +5459,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5284,7 +5467,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5292,7 +5478,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5300,7 +5486,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5308,7 +5494,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5316,7 +5502,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5324,10 +5510,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5335,10 +5518,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5346,7 +5526,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5354,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5362,7 +5542,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5370,10 +5550,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5383,13 +5560,19 @@
       <c r="B23" t="s">
         <v>36</v>
       </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5397,10 +5580,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5408,7 +5591,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5416,7 +5599,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5424,7 +5607,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5432,7 +5615,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5440,7 +5623,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5448,7 +5631,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5456,10 +5639,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5467,7 +5647,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5489,7 +5669,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5500,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5508,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5516,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5524,7 +5704,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5532,7 +5712,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5540,7 +5720,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5548,7 +5728,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5556,7 +5736,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5564,10 +5744,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5575,7 +5755,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5583,7 +5766,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5591,7 +5774,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5599,7 +5782,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5607,7 +5790,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5615,7 +5798,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5623,7 +5806,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5631,7 +5814,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5639,7 +5822,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5647,7 +5830,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5655,7 +5838,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5663,7 +5849,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5671,7 +5857,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5679,10 +5865,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5690,7 +5873,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5698,7 +5881,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5706,7 +5889,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5714,7 +5897,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5722,7 +5905,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5730,7 +5913,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5738,7 +5921,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5746,18 +5929,15 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5779,7 +5959,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5790,7 +5970,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5798,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5806,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5814,7 +5994,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5822,7 +6002,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5830,7 +6010,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5838,7 +6018,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5846,7 +6029,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5854,7 +6040,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5862,7 +6048,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5870,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5878,7 +6064,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5886,7 +6072,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5894,7 +6080,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5902,7 +6088,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5910,7 +6096,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5918,7 +6107,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5926,7 +6118,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5934,10 +6129,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5945,10 +6137,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5956,7 +6145,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5964,7 +6153,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5972,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5980,7 +6169,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5988,7 +6177,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5996,7 +6185,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6004,7 +6193,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6012,10 +6201,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6023,7 +6209,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6031,7 +6220,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6039,15 +6228,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6069,7 +6261,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6080,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6088,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6096,7 +6288,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6104,7 +6296,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6112,7 +6304,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6120,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6128,7 +6320,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6136,7 +6331,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6144,7 +6339,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6152,7 +6347,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6160,7 +6355,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6168,7 +6363,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6176,7 +6371,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6184,7 +6379,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6192,7 +6387,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6200,7 +6398,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6210,13 +6411,19 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6224,7 +6431,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6232,10 +6439,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6243,7 +6447,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6251,7 +6455,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6259,7 +6463,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6267,7 +6471,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6275,7 +6479,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6283,7 +6487,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6291,7 +6495,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6299,7 +6503,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6307,7 +6511,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6315,7 +6519,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6323,18 +6527,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6356,7 +6563,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6367,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6375,7 +6582,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6383,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6391,7 +6598,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6399,7 +6606,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6407,7 +6617,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6415,7 +6628,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6423,7 +6639,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6431,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6439,7 +6658,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6447,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6455,10 +6674,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6466,7 +6682,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6474,7 +6690,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6482,7 +6698,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6490,7 +6709,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6498,7 +6717,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6506,7 +6728,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6514,10 +6739,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6525,7 +6747,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6533,7 +6755,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6541,7 +6763,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6549,7 +6771,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6557,7 +6779,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6565,10 +6787,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6576,7 +6795,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6584,7 +6803,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6592,7 +6811,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6600,7 +6819,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6608,7 +6830,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6616,7 +6838,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6624,7 +6846,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6868,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6657,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6665,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6673,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6681,10 +6903,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6692,7 +6911,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6700,7 +6922,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6708,7 +6933,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6716,7 +6944,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6724,7 +6955,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6732,7 +6963,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6740,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6748,7 +6979,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6756,10 +6987,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6767,7 +6995,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6775,135 +7003,150 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6911,7 +7154,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6933,7 +7176,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6944,7 +7187,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6952,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6960,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6968,7 +7211,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6976,7 +7219,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6984,7 +7227,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6992,7 +7238,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7000,7 +7249,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7008,7 +7260,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7016,7 +7268,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7024,7 +7276,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7032,7 +7284,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7040,7 +7292,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7048,7 +7300,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7056,7 +7308,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7064,7 +7319,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7072,7 +7327,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7080,7 +7338,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7088,10 +7346,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7099,7 +7354,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7107,7 +7362,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7115,7 +7370,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7123,7 +7378,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7131,7 +7386,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7139,7 +7394,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7147,7 +7402,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7155,7 +7410,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7163,7 +7418,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7171,7 +7426,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7179,7 +7437,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7187,15 +7445,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7217,7 +7481,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7228,7 +7492,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7236,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7244,7 +7508,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7252,7 +7516,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7260,7 +7524,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7268,7 +7535,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7276,7 +7543,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7286,6 +7553,9 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
@@ -7294,16 +7564,13 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7311,7 +7578,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7319,7 +7586,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7327,7 +7594,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7335,7 +7602,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7343,7 +7610,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7351,7 +7621,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7359,7 +7632,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7367,7 +7643,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7375,7 +7651,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7383,7 +7659,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7391,7 +7667,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7399,10 +7675,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7410,7 +7683,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7418,7 +7691,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7426,7 +7699,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7434,7 +7707,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7442,10 +7715,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7453,7 +7723,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7461,7 +7731,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7469,7 +7742,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7477,15 +7753,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7507,7 +7789,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7518,7 +7800,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7526,7 +7811,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7534,7 +7822,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7542,7 +7833,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7550,7 +7844,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7558,7 +7852,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7566,7 +7860,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7574,7 +7868,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7582,7 +7876,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7590,7 +7884,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7598,7 +7892,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7606,7 +7903,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7614,7 +7914,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7622,10 +7925,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7633,7 +7936,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7641,7 +7944,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7649,7 +7952,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7657,7 +7960,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7665,7 +7968,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7673,7 +7976,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7681,7 +7984,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7689,7 +7992,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7697,7 +8000,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7705,7 +8008,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7713,7 +8016,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7721,7 +8027,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7729,7 +8038,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7737,7 +8046,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7745,10 +8057,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7756,7 +8065,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7764,7 +8073,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7772,7 +8081,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7794,7 +8103,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7805,7 +8114,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7813,7 +8125,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7821,7 +8136,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7829,7 +8147,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7837,7 +8158,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7845,7 +8166,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7853,7 +8174,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7861,7 +8182,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7869,7 +8190,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7877,7 +8198,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7885,7 +8206,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7893,7 +8217,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7901,7 +8228,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7909,7 +8236,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7917,7 +8247,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7925,7 +8255,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7933,10 +8263,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7944,7 +8271,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7952,7 +8279,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7960,7 +8287,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7968,7 +8295,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7976,7 +8303,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7984,7 +8311,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7992,7 +8319,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8003,7 +8330,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8013,13 +8340,19 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8027,7 +8360,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8035,7 +8371,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8043,7 +8379,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8051,7 +8387,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8059,7 +8395,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8417,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8092,7 +8428,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8100,7 +8436,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8108,7 +8444,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8116,7 +8452,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8124,7 +8460,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8132,7 +8468,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8140,7 +8476,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8148,7 +8484,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8156,7 +8492,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8164,7 +8503,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8172,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8180,7 +8522,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8188,7 +8530,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8196,7 +8538,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8204,7 +8546,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8212,7 +8554,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8220,7 +8562,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8228,7 +8570,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8236,7 +8578,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8244,10 +8589,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8255,7 +8600,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8263,7 +8608,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8271,7 +8616,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8279,7 +8624,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8287,7 +8632,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8295,7 +8640,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8303,10 +8648,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8314,7 +8656,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8322,7 +8664,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8330,7 +8672,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8338,7 +8680,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8346,7 +8688,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="139">
   <si>
     <t>Chekov, Pavel</t>
   </si>
@@ -146,304 +146,304 @@
     <t>...</t>
   </si>
   <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Maksim Plikus</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456833</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456828</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456822</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456810</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456815</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456802</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456812</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456831</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456807</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456795</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456827</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456818</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456801</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Kevin Thornton</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456823</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456824</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456789</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456796</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456809</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456819</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456816</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456825</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456799</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
     <t>Wayne Hayes</t>
   </si>
   <si>
-    <t>Maksim Plikus</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
+    <t>Zoom room: 123456803</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456829</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456791</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>Reginald McNulty</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456817</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456808</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456811</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456813</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Kevin Beier</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456793</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456794</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456806</t>
+  </si>
+  <si>
+    <t>Dax, Jadzia</t>
+  </si>
+  <si>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456832</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456800</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456797</t>
+  </si>
+  <si>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Marian Waterman</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456826</t>
+  </si>
+  <si>
+    <t>McCoy, Leonard</t>
   </si>
   <si>
     <t>Jack Xin</t>
   </si>
   <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456803</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456815</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456819</t>
-  </si>
-  <si>
     <t>Zoom room: 123456830</t>
   </si>
   <si>
-    <t>Zoom room: 123456799</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456808</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456789</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456825</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Zeba Wunderlich</t>
-  </si>
-  <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Reginald McNulty</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Ali Mortazavi</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Anne Calof</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456829</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456822</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456807</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456811</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456816</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456812</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456809</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456795</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Katrine Whiteson</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456833</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456824</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456827</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456791</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456800</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456810</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
+    <t>O'Brien, Miles</t>
   </si>
   <si>
     <t>Knut Solna</t>
   </si>
   <si>
-    <t>Zoom room: 123456797</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456831</t>
-  </si>
-  <si>
     <t>Zoom room: 123456821</t>
   </si>
   <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Thomas Schilling</t>
-  </si>
-  <si>
-    <t>Dominik Wodarz</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456801</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456818</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456828</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>James Brody</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456796</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456794</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456804</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Marian Waterman</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456813</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456826</t>
-  </si>
-  <si>
-    <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456802</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
+    <t>Rozhenko, Alexander</t>
+  </si>
+  <si>
+    <t>Uhura, Nyota</t>
+  </si>
+  <si>
+    <t>Worf</t>
   </si>
   <si>
     <t>Albert Siryaporn</t>
   </si>
   <si>
     <t>Zoom room: 123456820</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Kevin Thornton</t>
-  </si>
-  <si>
-    <t>Clare Yu</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456823</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456832</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>Janeway, Kathryn</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Kevin Beier</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456793</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456806</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
-    <t>Picard, Jean-Luc</t>
-  </si>
-  <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
-    <t>Rozhenko, Alexander</t>
-  </si>
-  <si>
-    <t>Uhura, Nyota</t>
-  </si>
-  <si>
-    <t>Worf</t>
   </si>
   <si>
     <t>Ogawa, Alyssa</t>
@@ -871,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -890,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -898,10 +898,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -957,10 +954,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -968,7 +962,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -976,10 +973,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -987,10 +984,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1086,10 +1083,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1097,10 +1091,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1205,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1216,10 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1291,10 +1282,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1302,10 +1293,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1423,7 +1414,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1498,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1509,10 +1500,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1584,10 +1572,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1595,10 +1583,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1716,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1807,10 +1795,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1890,7 +1875,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1898,10 +1886,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1909,10 +1897,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1920,10 +1908,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2009,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2084,10 +2069,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2095,10 +2080,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2170,10 +2152,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2181,10 +2163,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2302,7 +2284,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2393,10 +2375,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2476,7 +2455,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2484,10 +2466,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2495,10 +2477,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2506,10 +2488,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2595,7 +2574,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2606,10 +2585,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2617,10 +2596,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2628,10 +2607,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2639,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2698,10 +2677,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2709,10 +2688,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2720,10 +2699,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2731,10 +2710,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2822,10 +2801,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2833,10 +2812,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2844,10 +2823,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2855,10 +2834,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2912,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2923,10 +2902,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2934,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2945,10 +2924,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2956,10 +2935,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3015,7 +2994,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3023,10 +3005,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3034,10 +3016,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3045,10 +3027,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3139,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3147,10 +3129,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3158,7 +3140,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3166,10 +3151,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3223,7 +3208,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3266,10 +3251,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3277,7 +3262,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3285,10 +3273,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3296,10 +3284,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3355,10 +3343,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3366,10 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3377,10 +3362,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3388,10 +3373,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3479,7 +3464,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3487,10 +3475,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3498,21 +3483,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3585,10 +3567,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3596,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3607,10 +3589,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3666,10 +3648,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3677,7 +3659,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3685,10 +3670,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3696,10 +3681,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3787,10 +3772,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3806,21 +3791,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3824,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3885,10 +3867,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3896,10 +3878,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3907,10 +3889,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3918,10 +3900,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3977,7 +3956,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3985,10 +3967,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3996,10 +3975,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4007,10 +3986,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4098,7 +4077,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4106,10 +4088,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4117,18 +4099,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4193,10 +4175,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4204,10 +4186,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4215,10 +4194,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4226,10 +4205,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4285,7 +4261,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4293,10 +4272,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4304,10 +4280,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4315,10 +4291,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4406,7 +4382,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4414,10 +4393,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4425,21 +4404,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4461,7 +4437,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4504,10 +4480,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4515,10 +4488,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4526,10 +4499,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4537,10 +4510,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4596,7 +4569,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4604,10 +4580,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4615,10 +4591,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4626,10 +4602,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4717,10 +4693,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4736,21 +4709,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4742,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4815,10 +4785,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4826,7 +4796,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4834,10 +4807,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4845,10 +4818,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4904,7 +4877,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4912,10 +4888,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4923,10 +4896,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4934,10 +4907,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5025,10 +4998,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5036,10 +5009,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5047,21 +5020,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5158,10 +5128,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5169,10 +5139,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5244,10 +5211,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5255,10 +5222,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5467,10 +5434,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5550,7 +5514,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5558,10 +5525,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5569,10 +5536,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5580,10 +5547,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5744,10 +5708,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5755,10 +5719,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5830,7 +5791,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5838,10 +5802,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6002,7 +5966,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6010,7 +5977,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6018,10 +5988,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6029,10 +5999,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6088,7 +6058,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6096,10 +6069,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6107,10 +6080,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6118,10 +6091,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6209,10 +6179,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6220,7 +6187,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6228,18 +6198,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6323,7 +6293,7 @@
         <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6331,7 +6301,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6387,10 +6360,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6398,10 +6371,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6409,10 +6382,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6420,10 +6393,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6511,7 +6484,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6527,21 +6503,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6563,7 +6536,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6606,10 +6579,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6617,10 +6590,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6628,10 +6598,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6639,10 +6609,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6698,10 +6668,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6709,7 +6679,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6717,10 +6690,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6728,10 +6701,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6819,10 +6792,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6830,7 +6803,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6838,7 +6814,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6868,7 +6847,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6911,10 +6890,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6922,10 +6898,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6933,10 +6909,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6944,10 +6920,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7003,10 +6979,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7014,7 +6987,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7022,10 +6998,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7033,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
@@ -7124,10 +7100,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7135,7 +7111,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7143,10 +7122,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7219,7 +7195,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7227,10 +7206,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7238,10 +7217,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7249,10 +7225,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7308,13 +7284,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -7322,18 +7295,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7341,7 +7311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -7349,7 +7319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7357,7 +7327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -7365,7 +7335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -7373,7 +7343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -7381,7 +7351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -7389,7 +7359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -7397,7 +7367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -7405,7 +7375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -7413,7 +7383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -7421,18 +7391,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -7440,26 +7407,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7481,7 +7442,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7524,10 +7485,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7535,7 +7496,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7543,7 +7507,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7554,7 +7521,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7610,10 +7577,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7621,10 +7588,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7632,10 +7599,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7643,7 +7610,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7731,10 +7701,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7742,10 +7712,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7753,21 +7723,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7789,7 +7756,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7800,10 +7767,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7811,10 +7778,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7822,10 +7789,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7833,10 +7800,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7892,10 +7859,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7903,10 +7870,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7914,10 +7881,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7925,10 +7892,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8016,10 +7983,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8027,10 +7994,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8038,7 +8005,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8046,10 +8016,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8103,7 +8073,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8114,10 +8084,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8125,10 +8095,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8136,10 +8106,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8147,10 +8117,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8206,10 +8176,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8217,10 +8187,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8228,7 +8198,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8236,10 +8209,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8327,10 +8300,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8338,10 +8311,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8349,10 +8322,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8360,10 +8333,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8417,7 +8390,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8492,10 +8465,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8503,10 +8476,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8578,10 +8548,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8589,10 +8559,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="135">
   <si>
     <t>Chekov, Pavel</t>
   </si>
@@ -149,288 +149,282 @@
     <t>Jin Yu</t>
   </si>
   <si>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Reginald McNulty</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456833</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456832</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456822</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456789</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456811</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456824</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456803</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456791</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456825</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456818</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456800</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456819</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456812</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456807</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456816</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456799</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456831</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456796</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456827</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
     <t>Dominik Wodarz</t>
   </si>
   <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
+    <t>Zoom room: 123456810</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456828</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Kevin Thornton</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456823</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456809</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456817</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456808</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456829</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
   </si>
   <si>
     <t>Maksim Plikus</t>
   </si>
   <si>
+    <t>Kevin Beier</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Marian Waterman</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456813</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456815</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456793</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456794</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456826</t>
+  </si>
+  <si>
+    <t>Dax, Jadzia</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>Albert Siryaporn</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456820</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
+  </si>
+  <si>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456797</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456804</t>
+  </si>
+  <si>
+    <t>McCoy, Leonard</t>
+  </si>
+  <si>
+    <t>O'Brien, Miles</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456821</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456801</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
     <t>Anya Grosberg</t>
   </si>
   <si>
-    <t>Zoom room: 123456833</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456828</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456822</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456810</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456815</t>
-  </si>
-  <si>
     <t>Zoom room: 123456802</t>
   </si>
   <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Ali Mortazavi</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Anne Calof</t>
-  </si>
-  <si>
-    <t>Katrine Whiteson</t>
-  </si>
-  <si>
-    <t>Thomas Schilling</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456812</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456831</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456807</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456795</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456827</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456818</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456801</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Kevin Thornton</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>James Brody</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456823</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456824</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456789</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456796</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456809</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456819</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456816</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456825</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456799</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456803</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Zeba Wunderlich</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456829</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456791</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Jose Ranz</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Reginald McNulty</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456817</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456808</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456811</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456813</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Kevin Beier</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456793</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456794</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456806</t>
-  </si>
-  <si>
-    <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>Clare Yu</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456832</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456800</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456797</t>
-  </si>
-  <si>
-    <t>Janeway, Kathryn</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Marian Waterman</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456826</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456830</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456821</t>
-  </si>
-  <si>
-    <t>Picard, Jean-Luc</t>
-  </si>
-  <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
     <t>Rozhenko, Alexander</t>
   </si>
   <si>
@@ -438,12 +432,6 @@
   </si>
   <si>
     <t>Worf</t>
-  </si>
-  <si>
-    <t>Albert Siryaporn</t>
-  </si>
-  <si>
-    <t>Zoom room: 123456820</t>
   </si>
   <si>
     <t>Ogawa, Alyssa</t>
@@ -871,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -887,10 +875,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -898,7 +883,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -965,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -976,7 +964,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -987,7 +975,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1075,7 +1063,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1083,7 +1074,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1091,10 +1085,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1124,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1199,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1282,10 +1276,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1293,10 +1287,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1414,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1489,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1572,10 +1566,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1583,10 +1577,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1704,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1875,10 +1869,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1886,10 +1880,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1897,10 +1891,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1994,7 +1988,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2069,10 +2063,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2152,10 +2146,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2163,10 +2157,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2284,7 +2278,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2455,10 +2449,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2466,10 +2460,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2477,10 +2471,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2574,7 +2568,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2585,10 +2579,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2596,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2607,10 +2601,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2618,10 +2612,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2677,10 +2671,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2688,10 +2682,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2699,10 +2693,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2710,10 +2704,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2801,10 +2795,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2812,10 +2806,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2823,10 +2817,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2834,7 +2828,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>99</v>
@@ -2891,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2902,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2913,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2924,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2935,10 +2929,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2994,10 +2988,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3005,10 +2999,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3016,10 +3010,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3027,10 +3021,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3118,10 +3112,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3129,10 +3123,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3140,10 +3134,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3151,10 +3145,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3208,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3251,10 +3245,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3262,10 +3256,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3273,10 +3267,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3284,10 +3278,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3343,10 +3334,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3362,10 +3353,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3373,10 +3364,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3464,10 +3455,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3475,7 +3463,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3483,10 +3474,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3516,7 +3507,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3559,7 +3550,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3567,10 +3561,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3578,10 +3572,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3589,10 +3583,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3648,10 +3642,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3659,10 +3650,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3670,10 +3658,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3681,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3772,10 +3760,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3783,7 +3768,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3791,10 +3779,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3824,7 +3809,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3867,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3878,10 +3863,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3889,10 +3874,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3956,10 +3941,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3967,7 +3949,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3975,10 +3960,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3986,10 +3971,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4077,10 +4062,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4088,10 +4070,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4099,10 +4081,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4132,7 +4114,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4175,10 +4157,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4186,7 +4168,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4194,10 +4179,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4205,7 +4190,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4261,10 +4249,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4272,7 +4260,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4280,10 +4271,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4291,10 +4279,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4382,10 +4370,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4393,10 +4378,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4404,10 +4386,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4437,7 +4419,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4488,10 +4470,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4499,10 +4478,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4510,10 +4489,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4569,10 +4548,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4580,10 +4559,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4591,10 +4570,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4602,10 +4581,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4693,7 +4672,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4709,10 +4691,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4742,7 +4724,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4785,10 +4767,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4796,10 +4778,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4807,10 +4786,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4818,10 +4797,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4877,10 +4856,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4888,7 +4864,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4896,10 +4875,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4907,10 +4886,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4998,10 +4977,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5009,10 +4985,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5020,10 +4996,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5053,7 +5029,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5128,10 +5104,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5211,10 +5187,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5222,10 +5198,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5343,7 +5319,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5517,7 +5493,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5525,10 +5501,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5536,10 +5512,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5633,7 +5609,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5708,10 +5684,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5791,10 +5767,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5802,10 +5778,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5923,7 +5899,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5966,10 +5942,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5977,10 +5953,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5988,10 +5964,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5999,10 +5975,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6058,10 +6034,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6069,10 +6045,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6080,10 +6056,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6091,7 +6064,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6190,7 +6166,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6198,10 +6174,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6231,7 +6207,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6274,7 +6250,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6282,7 +6261,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6290,10 +6272,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6301,10 +6280,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6360,10 +6339,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6371,10 +6350,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6382,10 +6361,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6393,10 +6372,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6484,10 +6463,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6495,7 +6474,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6503,10 +6485,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6536,7 +6518,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6579,10 +6561,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6590,7 +6572,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6598,10 +6583,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6609,10 +6594,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6668,10 +6653,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6679,10 +6664,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6690,10 +6672,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6701,10 +6683,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6792,10 +6774,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6803,10 +6785,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6814,10 +6793,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6847,7 +6826,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6890,7 +6869,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6898,10 +6880,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6909,10 +6888,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6920,10 +6899,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6979,7 +6958,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6987,10 +6969,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6998,10 +6980,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7009,10 +6988,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7100,10 +7079,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7111,10 +7090,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7122,7 +7098,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7152,7 +7131,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7195,10 +7174,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7206,10 +7182,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7217,7 +7193,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7225,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7442,7 +7421,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7485,10 +7464,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7496,10 +7475,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7507,10 +7486,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7518,10 +7497,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7577,10 +7553,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7588,10 +7564,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7599,10 +7575,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7610,10 +7586,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7701,10 +7677,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7712,10 +7688,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7723,10 +7696,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7756,7 +7729,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7767,10 +7740,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7778,10 +7751,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7789,10 +7762,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7800,10 +7773,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7859,10 +7832,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7870,10 +7843,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7881,10 +7854,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7892,10 +7865,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7983,10 +7956,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7994,10 +7964,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8005,10 +7975,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8016,10 +7983,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8073,7 +8037,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8084,10 +8048,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8095,10 +8056,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8106,10 +8067,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8117,10 +8078,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8176,10 +8137,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8187,10 +8148,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8198,10 +8159,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8209,10 +8170,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8300,10 +8261,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8311,10 +8272,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8322,10 +8283,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8333,10 +8294,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
         <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8390,7 +8351,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8465,10 +8426,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8548,10 +8509,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8559,10 +8520,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
